--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="76">
   <si>
     <t>resilience</t>
   </si>
@@ -34,12 +34,36 @@
     <t>Agusan Del Sur</t>
   </si>
   <si>
+    <t>Aklan</t>
+  </si>
+  <si>
+    <t>Albay</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
     <t>Apayao</t>
   </si>
   <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Basilan</t>
+  </si>
+  <si>
+    <t>Bataan</t>
+  </si>
+  <si>
     <t>Batangas</t>
   </si>
   <si>
+    <t>Biliran</t>
+  </si>
+  <si>
+    <t>Bohol</t>
+  </si>
+  <si>
     <t>Bukidnon</t>
   </si>
   <si>
@@ -49,15 +73,45 @@
     <t>Cagayan</t>
   </si>
   <si>
+    <t>Camarines Norte</t>
+  </si>
+  <si>
     <t>Camarines Sur</t>
   </si>
   <si>
+    <t>Camiguin</t>
+  </si>
+  <si>
     <t>Capiz</t>
   </si>
   <si>
+    <t>Catanduanes</t>
+  </si>
+  <si>
+    <t>Cavite</t>
+  </si>
+  <si>
+    <t>Cebu</t>
+  </si>
+  <si>
+    <t>Compostela Valley</t>
+  </si>
+  <si>
     <t>Davao Del Norte</t>
   </si>
   <si>
+    <t>Davao Del Sur</t>
+  </si>
+  <si>
+    <t>Davao Oriental</t>
+  </si>
+  <si>
+    <t>Eastern Samar</t>
+  </si>
+  <si>
+    <t>Guimaras</t>
+  </si>
+  <si>
     <t>Ifugao</t>
   </si>
   <si>
@@ -67,6 +121,9 @@
     <t>Ilocos Sur</t>
   </si>
   <si>
+    <t>Iloilo</t>
+  </si>
+  <si>
     <t>Isabela</t>
   </si>
   <si>
@@ -85,21 +142,45 @@
     <t>Lanao Del Sur</t>
   </si>
   <si>
+    <t>Leyte</t>
+  </si>
+  <si>
     <t>Maguindanao</t>
   </si>
   <si>
+    <t>Marinduque</t>
+  </si>
+  <si>
+    <t>Masbate</t>
+  </si>
+  <si>
+    <t>Misamis Oriental</t>
+  </si>
+  <si>
     <t>Negros Occidental</t>
   </si>
   <si>
     <t>North Cotabato</t>
   </si>
   <si>
+    <t>Northern Samar</t>
+  </si>
+  <si>
     <t>Nueva Ecija</t>
   </si>
   <si>
     <t>Nueva Vizcaya</t>
   </si>
   <si>
+    <t>Occidental Mindoro</t>
+  </si>
+  <si>
+    <t>Oriental Mindoro</t>
+  </si>
+  <si>
+    <t>Palawan</t>
+  </si>
+  <si>
     <t>Pampanga</t>
   </si>
   <si>
@@ -112,22 +193,49 @@
     <t>Rizal</t>
   </si>
   <si>
+    <t>Romblon</t>
+  </si>
+  <si>
     <t>Samar</t>
   </si>
   <si>
     <t>Sarangani</t>
   </si>
   <si>
+    <t>Sorsogon</t>
+  </si>
+  <si>
     <t>South Cotabato</t>
   </si>
   <si>
+    <t>Southern Leyte</t>
+  </si>
+  <si>
     <t>Sultan Kudarat</t>
   </si>
   <si>
+    <t>Sulu</t>
+  </si>
+  <si>
+    <t>Surigao Del Norte</t>
+  </si>
+  <si>
     <t>Tarlac</t>
   </si>
   <si>
+    <t>Tawi-Tawi</t>
+  </si>
+  <si>
+    <t>Zambales</t>
+  </si>
+  <si>
+    <t>Zamboanga Del Norte</t>
+  </si>
+  <si>
     <t>Zamboanga Del Sur</t>
+  </si>
+  <si>
+    <t>Zamboanga Sibugay</t>
   </si>
   <si>
     <t>Mid</t>
@@ -510,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -539,10 +647,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -550,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -561,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -572,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -583,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -594,10 +702,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -605,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -616,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -627,10 +735,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -638,10 +746,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -649,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -660,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -671,10 +779,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -682,10 +790,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -693,10 +801,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -704,10 +812,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -715,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -726,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -737,10 +845,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -748,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -759,10 +867,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -770,10 +878,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -781,10 +889,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -792,10 +900,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -803,10 +911,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -814,10 +922,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -825,10 +933,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -836,10 +944,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -847,10 +955,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -858,10 +966,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -869,10 +977,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -880,10 +988,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -891,10 +999,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -902,10 +1010,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -913,10 +1021,406 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>37</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
   <si>
     <t>resilience</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Ilocos Sur</t>
   </si>
   <si>
-    <t>Iloilo</t>
-  </si>
-  <si>
     <t>Isabela</t>
   </si>
   <si>
@@ -214,16 +211,10 @@
     <t>Sultan Kudarat</t>
   </si>
   <si>
-    <t>Sulu</t>
-  </si>
-  <si>
     <t>Surigao Del Norte</t>
   </si>
   <si>
     <t>Tarlac</t>
-  </si>
-  <si>
-    <t>Tawi-Tawi</t>
   </si>
   <si>
     <t>Zambales</t>
@@ -618,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -647,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -658,10 +649,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -669,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -680,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -691,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -702,10 +693,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -713,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -724,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -735,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -746,10 +737,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -757,10 +748,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -768,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -779,10 +770,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -790,10 +781,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -801,10 +792,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -812,10 +803,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -823,10 +814,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -834,10 +825,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -845,10 +836,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -856,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -867,10 +858,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -878,10 +869,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -889,10 +880,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -900,10 +891,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -911,10 +902,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -922,10 +913,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -933,10 +924,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -944,10 +935,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -955,10 +946,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -966,10 +957,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -977,10 +968,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -988,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -999,10 +990,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1010,10 +1001,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1021,10 +1012,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1032,10 +1023,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1043,10 +1034,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1054,10 +1045,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1065,10 +1056,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1076,10 +1067,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1087,10 +1078,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1098,10 +1089,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1109,10 +1100,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1120,10 +1111,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1131,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1142,10 +1133,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1153,10 +1144,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1164,10 +1155,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1175,10 +1166,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1186,10 +1177,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1197,10 +1188,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1208,10 +1199,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1219,10 +1210,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1230,10 +1221,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1241,10 +1232,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1252,10 +1243,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1263,10 +1254,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1274,10 +1265,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1285,10 +1276,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1296,10 +1287,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1307,10 +1298,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1318,10 +1309,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1329,10 +1320,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1340,10 +1331,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1351,10 +1342,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1362,10 +1353,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1373,10 +1364,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1384,43 +1375,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -704,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -1004,7 +1004,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -1367,7 +1367,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
   <si>
     <t>resilience</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Davao Oriental</t>
   </si>
   <si>
-    <t>Eastern Samar</t>
-  </si>
-  <si>
     <t>Guimaras</t>
   </si>
   <si>
@@ -136,15 +133,9 @@
     <t>Lanao Del Norte</t>
   </si>
   <si>
-    <t>Lanao Del Sur</t>
-  </si>
-  <si>
     <t>Leyte</t>
   </si>
   <si>
-    <t>Maguindanao</t>
-  </si>
-  <si>
     <t>Marinduque</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>Samar</t>
   </si>
   <si>
-    <t>Sarangani</t>
-  </si>
-  <si>
     <t>Sorsogon</t>
   </si>
   <si>
@@ -220,22 +208,19 @@
     <t>Zambales</t>
   </si>
   <si>
-    <t>Zamboanga Del Norte</t>
-  </si>
-  <si>
     <t>Zamboanga Del Sur</t>
   </si>
   <si>
     <t>Zamboanga Sibugay</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Mid</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -609,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -638,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -649,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -660,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -671,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -682,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -693,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -704,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -715,10 +700,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -726,10 +711,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -737,10 +722,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -748,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -759,10 +744,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -770,10 +755,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -781,10 +766,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -792,10 +777,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -803,10 +788,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -814,10 +799,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -825,10 +810,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -836,10 +821,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -847,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -858,10 +843,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -869,10 +854,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -880,10 +865,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -891,10 +876,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -902,10 +887,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -913,10 +898,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -924,10 +909,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -935,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -946,10 +931,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -957,10 +942,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -968,10 +953,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -979,10 +964,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -990,10 +975,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1001,10 +986,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1012,10 +997,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1023,10 +1008,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1034,10 +1019,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1045,10 +1030,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1056,10 +1041,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1067,10 +1052,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1078,10 +1063,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1089,10 +1074,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1100,10 +1085,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1111,10 +1096,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1122,10 +1107,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1133,10 +1118,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1144,10 +1129,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1155,10 +1140,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1166,10 +1151,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1177,10 +1162,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1188,10 +1173,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1199,10 +1184,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1210,10 +1195,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1221,10 +1206,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1232,10 +1217,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1243,10 +1228,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1254,10 +1239,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1265,10 +1250,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1276,10 +1261,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1287,10 +1272,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1298,10 +1283,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1309,10 +1294,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1320,65 +1305,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -1039,7 +1039,7 @@
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>72</v>
@@ -1291,7 +1291,7 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>71</v>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="67">
   <si>
     <t>risk_to_assets</t>
   </si>
@@ -31,12 +31,6 @@
     <t>Abra</t>
   </si>
   <si>
-    <t>Agusan Del Norte</t>
-  </si>
-  <si>
-    <t>Agusan Del Sur</t>
-  </si>
-  <si>
     <t>Aklan</t>
   </si>
   <si>
@@ -58,6 +52,9 @@
     <t>Bataan</t>
   </si>
   <si>
+    <t>Batanes</t>
+  </si>
+  <si>
     <t>Batangas</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t>Compostela Valley</t>
   </si>
   <si>
-    <t>Davao Del Norte</t>
-  </si>
-  <si>
-    <t>Davao Del Sur</t>
-  </si>
-  <si>
     <t>Davao Oriental</t>
   </si>
   <si>
@@ -136,12 +127,6 @@
     <t>Laguna</t>
   </si>
   <si>
-    <t>Lanao Del Norte</t>
-  </si>
-  <si>
-    <t>Lanao Del Sur</t>
-  </si>
-  <si>
     <t>Leyte</t>
   </si>
   <si>
@@ -154,13 +139,16 @@
     <t>Masbate</t>
   </si>
   <si>
+    <t>Misamis Occidental</t>
+  </si>
+  <si>
     <t>Misamis Oriental</t>
   </si>
   <si>
     <t>Negros Occidental</t>
   </si>
   <si>
-    <t>North Cotabato</t>
+    <t>Negros Oriental</t>
   </si>
   <si>
     <t>Northern Samar</t>
@@ -196,12 +184,12 @@
     <t>Romblon</t>
   </si>
   <si>
-    <t>Samar</t>
-  </si>
-  <si>
     <t>Sarangani</t>
   </si>
   <si>
+    <t>Siquijor</t>
+  </si>
+  <si>
     <t>Sorsogon</t>
   </si>
   <si>
@@ -214,31 +202,22 @@
     <t>Sultan Kudarat</t>
   </si>
   <si>
-    <t>Surigao Del Norte</t>
-  </si>
-  <si>
     <t>Tarlac</t>
   </si>
   <si>
     <t>Zambales</t>
   </si>
   <si>
-    <t>Zamboanga Del Norte</t>
-  </si>
-  <si>
-    <t>Zamboanga Del Sur</t>
-  </si>
-  <si>
     <t>Zamboanga Sibugay</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>Mid</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -612,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -644,13 +623,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -658,13 +637,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -672,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -686,13 +665,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -700,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -714,13 +693,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -728,13 +707,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -742,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -756,13 +735,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -770,13 +749,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -784,13 +763,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -798,13 +777,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -812,13 +791,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -826,13 +805,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -840,13 +819,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -854,13 +833,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -868,13 +847,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -882,13 +861,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -896,13 +875,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -910,13 +889,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -924,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -938,13 +917,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -952,13 +931,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -966,13 +945,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -980,13 +959,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -994,13 +973,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1008,13 +987,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1022,13 +1001,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1036,13 +1015,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1050,13 +1029,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1064,13 +1043,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1078,13 +1057,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1092,13 +1071,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1106,13 +1085,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1120,13 +1099,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1134,13 +1113,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1148,13 +1127,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1162,13 +1141,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1176,13 +1155,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1190,13 +1169,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1204,13 +1183,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1218,13 +1197,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1232,13 +1211,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1246,13 +1225,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1260,13 +1239,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1274,13 +1253,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1288,13 +1267,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1302,13 +1281,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1316,13 +1295,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1330,13 +1309,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1344,13 +1323,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1358,13 +1337,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1372,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1386,13 +1365,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1400,13 +1379,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1414,13 +1393,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1428,13 +1407,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1442,13 +1421,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1456,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1470,13 +1449,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1484,111 +1463,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -211,13 +211,13 @@
     <t>Zamboanga Sibugay</t>
   </si>
   <si>
+    <t>Mid</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>Mid</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -637,13 +637,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -651,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -665,13 +665,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -679,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -693,13 +693,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -707,13 +707,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -721,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -735,13 +735,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -749,13 +749,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -763,13 +763,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -777,13 +777,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -791,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>66</v>
@@ -805,13 +805,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -822,7 +822,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -833,13 +833,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -850,7 +850,7 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
@@ -864,10 +864,10 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -878,7 +878,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -889,13 +889,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -903,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -917,13 +917,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -931,13 +931,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -945,13 +945,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -959,13 +959,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -973,13 +973,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -990,7 +990,7 @@
         <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>66</v>
@@ -1004,10 +1004,10 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1018,10 +1018,10 @@
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1032,10 +1032,10 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1046,10 +1046,10 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1057,13 +1057,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1071,13 +1071,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1085,13 +1085,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1099,13 +1099,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1113,13 +1113,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1127,13 +1127,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1141,10 +1141,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
@@ -1155,13 +1155,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1169,10 +1169,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
@@ -1183,10 +1183,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>66</v>
@@ -1197,13 +1197,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
@@ -1228,7 +1228,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
@@ -1242,10 +1242,10 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1267,13 +1267,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>66</v>
@@ -1295,10 +1295,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
@@ -1312,7 +1312,7 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -1323,13 +1323,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1351,10 +1351,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
         <v>66</v>
@@ -1365,13 +1365,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1407,13 +1407,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1424,10 +1424,10 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>66</v>
@@ -1449,13 +1449,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>Socio-economic capacity</t>
   </si>
@@ -280,13 +280,10 @@
     <t>Zamboanga Sibugay</t>
   </si>
   <si>
+    <t>Mid</t>
+  </si>
+  <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -705,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -713,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -721,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -729,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -737,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -745,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -753,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -761,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -785,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -793,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -801,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -809,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -817,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -825,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -833,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -841,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -849,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -857,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -865,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -873,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -881,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -889,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -897,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -905,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -913,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -921,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -929,7 +926,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -937,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -945,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -953,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -961,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -969,7 +966,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -977,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -985,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -993,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1001,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1009,7 +1006,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1017,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1025,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1033,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1041,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1049,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1057,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1065,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1073,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1081,7 +1078,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1089,7 +1086,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1105,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1113,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1121,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1129,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1137,7 +1134,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1145,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1153,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1161,7 +1158,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1169,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1177,7 +1174,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1185,7 +1182,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1193,7 +1190,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1201,7 +1198,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1209,7 +1206,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1225,7 +1222,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1233,7 +1230,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1241,7 +1238,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1249,7 +1246,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1257,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1265,7 +1262,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1273,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1281,7 +1278,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1289,7 +1286,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1297,7 +1294,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1305,7 +1302,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1313,7 +1310,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1345,7 +1342,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1353,7 +1350,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1361,7 +1358,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/results/categories.xlsx
+++ b/results/categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>Socio-economic capacity</t>
   </si>
@@ -25,268 +25,202 @@
     <t>province</t>
   </si>
   <si>
-    <t>Abra</t>
-  </si>
-  <si>
-    <t>Agusan del Norte</t>
-  </si>
-  <si>
-    <t>Agusan del Sur</t>
-  </si>
-  <si>
-    <t>Aklan</t>
-  </si>
-  <si>
-    <t>Albay</t>
-  </si>
-  <si>
-    <t>Antique</t>
-  </si>
-  <si>
-    <t>Apayao</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Basilan</t>
-  </si>
-  <si>
-    <t>Bataan</t>
-  </si>
-  <si>
-    <t>Batanes</t>
-  </si>
-  <si>
-    <t>Batangas</t>
-  </si>
-  <si>
-    <t>Benguet</t>
-  </si>
-  <si>
-    <t>Biliran</t>
-  </si>
-  <si>
-    <t>Bohol</t>
-  </si>
-  <si>
-    <t>Bukidnon</t>
-  </si>
-  <si>
-    <t>Bulacan</t>
-  </si>
-  <si>
-    <t>Cagayan</t>
-  </si>
-  <si>
-    <t>Camarines Norte</t>
-  </si>
-  <si>
-    <t>Camarines Sur</t>
-  </si>
-  <si>
-    <t>Camiguin</t>
-  </si>
-  <si>
-    <t>Capiz</t>
-  </si>
-  <si>
-    <t>Catanduanes</t>
-  </si>
-  <si>
-    <t>Cavite</t>
-  </si>
-  <si>
-    <t>Cebu</t>
-  </si>
-  <si>
-    <t>Compostela Valley</t>
-  </si>
-  <si>
-    <t>Cotabato</t>
-  </si>
-  <si>
-    <t>Cotabato City</t>
-  </si>
-  <si>
-    <t>Davao</t>
-  </si>
-  <si>
-    <t>Davao del Sur</t>
-  </si>
-  <si>
-    <t>Davao Oriental</t>
-  </si>
-  <si>
-    <t>Eastern Samar</t>
-  </si>
-  <si>
-    <t>Guimaras</t>
-  </si>
-  <si>
-    <t>Ifugao</t>
-  </si>
-  <si>
-    <t>Ilocos Norte</t>
-  </si>
-  <si>
-    <t>Ilocos Sur</t>
-  </si>
-  <si>
-    <t>Iloilo</t>
-  </si>
-  <si>
-    <t>Isabela</t>
-  </si>
-  <si>
-    <t>Isabela City</t>
-  </si>
-  <si>
-    <t>Kalinga</t>
-  </si>
-  <si>
-    <t>La Union</t>
-  </si>
-  <si>
-    <t>Laguna</t>
-  </si>
-  <si>
-    <t>Lanao del Norte</t>
-  </si>
-  <si>
-    <t>Lanao del Sur</t>
-  </si>
-  <si>
-    <t>Leyte</t>
-  </si>
-  <si>
-    <t>Maguindanao</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>Marinduque</t>
-  </si>
-  <si>
-    <t>Masbate</t>
-  </si>
-  <si>
-    <t>Misamis Occidental</t>
-  </si>
-  <si>
-    <t>Misamis Oriental</t>
-  </si>
-  <si>
-    <t>Mountain Province</t>
-  </si>
-  <si>
-    <t>NCR-2nd Dist.</t>
-  </si>
-  <si>
-    <t>NCR-3rd Dist.</t>
-  </si>
-  <si>
-    <t>NCR-4th Dist.</t>
-  </si>
-  <si>
-    <t>Negros Occidental</t>
-  </si>
-  <si>
-    <t>Negros Oriental</t>
-  </si>
-  <si>
-    <t>Northern Samar</t>
-  </si>
-  <si>
-    <t>Nueva Ecija</t>
-  </si>
-  <si>
-    <t>Nueva Vizcaya</t>
-  </si>
-  <si>
-    <t>Occidental Mindoro</t>
-  </si>
-  <si>
-    <t>Oriental Mindoro</t>
-  </si>
-  <si>
-    <t>Palawan</t>
-  </si>
-  <si>
-    <t>Pampanga</t>
-  </si>
-  <si>
-    <t>Pangasinan</t>
-  </si>
-  <si>
-    <t>Quezon</t>
-  </si>
-  <si>
-    <t>Quirino</t>
-  </si>
-  <si>
-    <t>Rizal</t>
-  </si>
-  <si>
-    <t>Romblon</t>
-  </si>
-  <si>
-    <t>Samar (Western)</t>
-  </si>
-  <si>
-    <t>Sarangani</t>
-  </si>
-  <si>
-    <t>Siquijor</t>
-  </si>
-  <si>
-    <t>Sorsogon</t>
-  </si>
-  <si>
-    <t>South Cotabato</t>
-  </si>
-  <si>
-    <t>Southern Leyte</t>
-  </si>
-  <si>
-    <t>Sultan Kudarat</t>
-  </si>
-  <si>
-    <t>Sulu</t>
-  </si>
-  <si>
-    <t>Surigao del Norte</t>
-  </si>
-  <si>
-    <t>Surigao del Sur</t>
-  </si>
-  <si>
-    <t>Tarlac</t>
-  </si>
-  <si>
-    <t>Tawi-tawi</t>
-  </si>
-  <si>
-    <t>Zambales</t>
-  </si>
-  <si>
-    <t>Zamboanga del Norte</t>
-  </si>
-  <si>
-    <t>Zamboanga del Sur</t>
-  </si>
-  <si>
-    <t>Zamboanga Sibugay</t>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Ha Giang</t>
+  </si>
+  <si>
+    <t>Cao Bang</t>
+  </si>
+  <si>
+    <t>Bac Kan</t>
+  </si>
+  <si>
+    <t>Tuyen Quang</t>
+  </si>
+  <si>
+    <t>Lao Cai</t>
+  </si>
+  <si>
+    <t>Dien Bien</t>
+  </si>
+  <si>
+    <t>Lai Chau</t>
+  </si>
+  <si>
+    <t>Son La</t>
+  </si>
+  <si>
+    <t>Yen Bai</t>
+  </si>
+  <si>
+    <t>Hoa Binh</t>
+  </si>
+  <si>
+    <t>Thai Nguyen</t>
+  </si>
+  <si>
+    <t>Lang Son</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Phu Tho</t>
+  </si>
+  <si>
+    <t>Vinh Phuc</t>
+  </si>
+  <si>
+    <t>Bac Ninh</t>
+  </si>
+  <si>
+    <t>Hai Duong</t>
+  </si>
+  <si>
+    <t>Hai Phong city</t>
+  </si>
+  <si>
+    <t>Hung Yen</t>
+  </si>
+  <si>
+    <t>Thai Binh</t>
+  </si>
+  <si>
+    <t>Ha Nam</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Ninh Binh</t>
+  </si>
+  <si>
+    <t>Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>Ha Tinh</t>
+  </si>
+  <si>
+    <t>Quang Binh</t>
+  </si>
+  <si>
+    <t>Quang Tri</t>
+  </si>
+  <si>
+    <t>Thua Thien Hue</t>
+  </si>
+  <si>
+    <t>Da Nang city</t>
+  </si>
+  <si>
+    <t>Quang Nam</t>
+  </si>
+  <si>
+    <t>Quang Ngai</t>
+  </si>
+  <si>
+    <t>Binh Dinh</t>
+  </si>
+  <si>
+    <t>Phu Yen</t>
+  </si>
+  <si>
+    <t>Khanh Hoa</t>
+  </si>
+  <si>
+    <t>Ninh Thuan</t>
+  </si>
+  <si>
+    <t>Binh Thuan</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>Dak Lak</t>
+  </si>
+  <si>
+    <t>Dak Nong</t>
+  </si>
+  <si>
+    <t>Lam Dong</t>
+  </si>
+  <si>
+    <t>Binh Phuoc</t>
+  </si>
+  <si>
+    <t>Tay Ninh</t>
+  </si>
+  <si>
+    <t>Binh Duong</t>
+  </si>
+  <si>
+    <t>Dong Nai</t>
+  </si>
+  <si>
+    <t>Ba Ria - Vung Tau</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh city</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Tien Giang</t>
+  </si>
+  <si>
+    <t>Ben Tre</t>
+  </si>
+  <si>
+    <t>Tra Vinh</t>
+  </si>
+  <si>
+    <t>Vinh Long</t>
+  </si>
+  <si>
+    <t>Dong Thap</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Kien Giang</t>
+  </si>
+  <si>
+    <t>Can Tho city</t>
+  </si>
+  <si>
+    <t>Hau Giang</t>
+  </si>
+  <si>
+    <t>Soc Trang</t>
+  </si>
+  <si>
+    <t>Bac Lieu</t>
+  </si>
+  <si>
+    <t>Ca Mau</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
     <t>Mid</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -660,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -689,23 +623,20 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -713,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -721,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -729,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -737,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -745,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -753,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -761,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -769,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -777,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -785,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -793,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -801,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -809,559 +740,391 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
